--- a/Template/NewTemplateReimbursement.xlsx
+++ b/Template/NewTemplateReimbursement.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GPService\GitHub\BoschACDC\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A64AAA-E3CF-48A9-B9C0-B63DC63E157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F95587-0408-44A0-8A5E-22515453EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2700" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B&amp;O Lsp Billing" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Trang feedback" sheetId="5" r:id="rId3"/>
-    <sheet name="Invoice Instruction" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="Posting Instruction" sheetId="7" r:id="rId6"/>
-    <sheet name="Template Description" sheetId="2" r:id="rId7"/>
-    <sheet name="Format check" sheetId="3" r:id="rId8"/>
+    <sheet name="Biz Bo Pre Check Form" sheetId="9" r:id="rId3"/>
+    <sheet name="Trang feedback" sheetId="5" r:id="rId4"/>
+    <sheet name="Invoice Instruction" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Posting Instruction" sheetId="7" r:id="rId7"/>
+    <sheet name="Template Description" sheetId="2" r:id="rId8"/>
+    <sheet name="Format check" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -31,11 +31,12 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_101_Daily_Stat_Open_Items" localSheetId="7">#REF!</definedName>
+    <definedName name="_101_Daily_Stat_Open_Items" localSheetId="8">#REF!</definedName>
     <definedName name="_101_Daily_Stat_Open_Items">#REF!</definedName>
-    <definedName name="_101_Daily_Stat_Position_Upd_Rückstellung" localSheetId="7">#REF!</definedName>
+    <definedName name="_101_Daily_Stat_Position_Upd_Rückstellung" localSheetId="8">#REF!</definedName>
     <definedName name="_101_Daily_Stat_Position_Upd_Rückstellung">#REF!</definedName>
     <definedName name="_102_Daily_stat_Rechnung">#REF!</definedName>
     <definedName name="_102_Daily_stat_Rechnung_Rückstellung">#REF!</definedName>
@@ -101,8 +102,8 @@
     <definedName name="_DAT8">#REF!</definedName>
     <definedName name="_DAT9">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B&amp;O Lsp Billing'!$A$2:$EN$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Format check'!$A$1:$E$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Template Description'!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Format check'!$A$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Template Description'!$A$1:$L$65</definedName>
     <definedName name="_xlnm._FilterDatabase">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_Sheet2A1BC661" hidden="1">Sheet2!$A$1:$BC$66</definedName>
     <definedName name="a">#REF!</definedName>
@@ -189,8 +190,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -417,7 +418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="480">
   <si>
     <t>Position number</t>
   </si>
@@ -1863,18 +1864,31 @@
   <si>
     <t>Invoice no.</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Special charge</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0_ "/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="99">
+  <fonts count="101">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2404,8 +2418,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2460,6 +2483,11 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2485,15 +2513,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2930,13 +2961,26 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="99" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="100" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="95" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="95" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{CFDDDCB4-548E-46FC-9520-AE1C94E94A56}"/>
     <cellStyle name="Comma 3 2" xfId="4" xr:uid="{D1320B8A-ABB5-442B-A2E9-0F844040993D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{63409AB9-1874-4489-B00F-97CB6B977BCA}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{4FF64E29-C562-4A91-97EE-B482D6B70C1D}"/>
     <cellStyle name="Normal 3 3" xfId="2" xr:uid="{508AF265-ABC8-4BB9-BB11-C59F6564759C}"/>
   </cellStyles>
   <dxfs count="41">
@@ -7619,6 +7663,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE72D2E-FF89-4C62-91B2-355266682E86}">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="157" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="157" customWidth="1"/>
+    <col min="3" max="3" width="14" style="158" customWidth="1"/>
+    <col min="4" max="4" width="12" style="157" customWidth="1"/>
+    <col min="5" max="5" width="24" style="157" customWidth="1"/>
+    <col min="6" max="6" width="10" style="157" customWidth="1"/>
+    <col min="7" max="7" width="27" style="157" customWidth="1"/>
+    <col min="8" max="8" width="12" style="157" customWidth="1"/>
+    <col min="9" max="10" width="10" style="157" customWidth="1"/>
+    <col min="11" max="11" width="12" style="157" customWidth="1"/>
+    <col min="12" max="12" width="11" style="157" customWidth="1"/>
+    <col min="13" max="13" width="14" style="157" customWidth="1"/>
+    <col min="14" max="14" width="8" style="157" customWidth="1"/>
+    <col min="15" max="15" width="25" style="157" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" style="157" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="157" customWidth="1"/>
+    <col min="18" max="19" width="8" style="157" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="157" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="156" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="154" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="156" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" s="156" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="154" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="156" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q1" s="156" t="s">
+        <v>479</v>
+      </c>
+      <c r="R1" s="156" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="156" t="s">
+        <v>425</v>
+      </c>
+      <c r="T1" s="156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="D2" s="159"/>
+      <c r="H2" s="159"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="D3" s="159"/>
+      <c r="H3" s="159"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="D4" s="159"/>
+      <c r="H4" s="159"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="D5" s="159"/>
+      <c r="H5" s="159"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="D6" s="159"/>
+      <c r="H6" s="159"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="D7" s="159"/>
+      <c r="H7" s="159"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="D8" s="159"/>
+      <c r="H8" s="159"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="D9" s="159"/>
+      <c r="H9" s="159"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="D10" s="159"/>
+      <c r="H10" s="159"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="D11" s="159"/>
+      <c r="H11" s="159"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="D12" s="159"/>
+      <c r="H12" s="159"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="D13" s="159"/>
+      <c r="H13" s="159"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="D14" s="159"/>
+      <c r="H14" s="159"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="D15" s="159"/>
+      <c r="H15" s="159"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="D16" s="159"/>
+      <c r="H16" s="159"/>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="159"/>
+      <c r="H17" s="159"/>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="159"/>
+      <c r="H18" s="159"/>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="159"/>
+      <c r="H19" s="159"/>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="159"/>
+      <c r="H20" s="159"/>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="159"/>
+      <c r="H21" s="159"/>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="159"/>
+      <c r="H22" s="159"/>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="159"/>
+      <c r="H23" s="159"/>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="159"/>
+      <c r="H24" s="159"/>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" s="159"/>
+      <c r="H25" s="159"/>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="D26" s="159"/>
+      <c r="H26" s="159"/>
+    </row>
+    <row r="27" spans="4:8">
+      <c r="D27" s="159"/>
+      <c r="H27" s="159"/>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28" s="159"/>
+      <c r="H28" s="159"/>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" s="159"/>
+      <c r="H29" s="159"/>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="D30" s="159"/>
+      <c r="H30" s="159"/>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="159"/>
+      <c r="H31" s="159"/>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="159"/>
+      <c r="H32" s="159"/>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="159"/>
+      <c r="H33" s="159"/>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="159"/>
+      <c r="H34" s="159"/>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="159"/>
+      <c r="H35" s="159"/>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="159"/>
+      <c r="H36" s="159"/>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="159"/>
+      <c r="H37" s="159"/>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="159"/>
+      <c r="H38" s="159"/>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="159"/>
+      <c r="H39" s="159"/>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="159"/>
+      <c r="H40" s="159"/>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="159"/>
+      <c r="H41" s="159"/>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="159"/>
+      <c r="H42" s="159"/>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="159"/>
+      <c r="H43" s="159"/>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="159"/>
+      <c r="H44" s="159"/>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="159"/>
+      <c r="H45" s="159"/>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="D46" s="159"/>
+      <c r="H46" s="159"/>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="159"/>
+      <c r="H47" s="159"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70ACEB9-EDFF-478B-8005-5880B7248091}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -7859,7 +8183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F4A533-BF48-46A2-8F79-3369F576D2AE}">
   <dimension ref="A3:E9"/>
   <sheetViews>
@@ -8004,7 +8328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD26B66-7A58-40D5-9B3F-96BFC55083ED}">
   <dimension ref="A1:BC66"/>
   <sheetViews>
@@ -19003,7 +19327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C33EF3-A465-4523-8AB8-AAC1DF6B0A00}">
   <dimension ref="A3:H23"/>
   <sheetViews>
@@ -19487,7 +19811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
@@ -21646,7 +21970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6A2614-BF8D-4D80-9144-C2D5ECE2FA0D}">
   <dimension ref="A1:F79"/>
   <sheetViews>
